--- a/features/backlog/android/kill_switch.xlsx
+++ b/features/backlog/android/kill_switch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A339C6B3-52A6-47D2-B272-576D4930F545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A5A0D0-4106-4752-BA16-AFCE2F9CAFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="196">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -381,6 +381,249 @@
   </si>
   <si>
     <t>Verify that the kill switch works</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-019</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-020</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-021</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-022</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-023</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-024</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-025</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-026</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-027</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-028</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-029</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-030</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-031</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-032</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-033</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-034</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-035</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-036</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-037</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-038</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-039</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-040</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-041</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-042</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-043</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-044</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-045</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-046</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-047</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-048</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-049</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-050</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-051</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-052</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-053</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-054</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-055</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-056</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-057</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-058</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-059</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-060</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-061</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-062</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-063</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-064</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-065</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-066</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-067</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-068</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-069</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-070</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-071</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-072</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-073</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-074</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-075</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-076</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-078</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-079</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-080</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-081</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-082</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-083</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-084</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-085</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-086</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-087</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-088</t>
+  </si>
+  <si>
+    <t>SYMKILLSWI-089</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. observe the deafult functionality is off for kill switch.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. on the kill switch option</t>
+  </si>
+  <si>
+    <t>should go to home to the device</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. off the kill switch option</t>
+  </si>
+  <si>
+    <t>should show the kill switch functionality is off by default.</t>
+  </si>
+  <si>
+    <t>should show the kill switch functionality is disabled</t>
+  </si>
+  <si>
+    <t>should working enable/disable perfectly.</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1661,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1534,7 +1777,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -1545,10 +1788,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>7</v>
@@ -1576,7 +1819,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
@@ -1587,10 +1830,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1614,7 +1857,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1625,10 +1868,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1652,7 +1895,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
@@ -1666,7 +1909,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1690,7 +1933,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -1728,7 +1971,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1766,7 +2009,7 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -1804,7 +2047,7 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -1842,7 +2085,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1880,7 +2123,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
@@ -1918,7 +2161,7 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -1956,7 +2199,7 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -1994,7 +2237,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>39</v>
       </c>
@@ -2032,7 +2275,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
@@ -2070,7 +2313,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -2108,7 +2351,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>43</v>
       </c>
@@ -2146,7 +2389,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>44</v>
       </c>
@@ -2184,7 +2427,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -2222,9 +2465,9 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>41</v>
@@ -2260,9 +2503,9 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>41</v>
@@ -2298,9 +2541,9 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>41</v>
@@ -2336,9 +2579,9 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>41</v>
@@ -2374,9 +2617,9 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>41</v>
@@ -2412,9 +2655,9 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>41</v>
@@ -2450,9 +2693,9 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>41</v>
@@ -2488,9 +2731,9 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>41</v>
@@ -2526,9 +2769,9 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>41</v>
@@ -2564,9 +2807,9 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>41</v>
@@ -2602,9 +2845,9 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>41</v>
@@ -2640,9 +2883,9 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>41</v>
@@ -2680,7 +2923,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>41</v>
@@ -2718,7 +2961,7 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>43</v>
+        <v>132</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>41</v>
@@ -2756,7 +2999,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>41</v>
@@ -2794,7 +3037,7 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>41</v>
@@ -2832,7 +3075,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>41</v>
@@ -2870,7 +3113,7 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>41</v>
@@ -2908,7 +3151,7 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>41</v>
@@ -2946,7 +3189,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>41</v>
@@ -2984,7 +3227,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>41</v>
@@ -3022,7 +3265,7 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>41</v>
@@ -3060,7 +3303,7 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>41</v>
@@ -3098,7 +3341,7 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>41</v>
@@ -3136,7 +3379,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>41</v>
@@ -3174,7 +3417,7 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>41</v>
@@ -3212,7 +3455,7 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>41</v>
@@ -3250,7 +3493,7 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>41</v>
@@ -3288,7 +3531,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>41</v>
@@ -3326,7 +3569,7 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>41</v>
@@ -3364,7 +3607,7 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>41</v>
@@ -3402,7 +3645,7 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>41</v>
@@ -3440,7 +3683,7 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>41</v>
@@ -3478,7 +3721,7 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>41</v>
@@ -3516,7 +3759,7 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>41</v>
@@ -3554,7 +3797,7 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>41</v>
@@ -3592,7 +3835,7 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>41</v>
@@ -3630,7 +3873,7 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>41</v>
@@ -3668,7 +3911,7 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>41</v>
@@ -3706,7 +3949,7 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>41</v>
@@ -3744,7 +3987,7 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>37</v>
+        <v>159</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>41</v>
@@ -3782,7 +4025,7 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>41</v>
@@ -3820,7 +4063,7 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>41</v>
@@ -3858,7 +4101,7 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>41</v>
@@ -3896,7 +4139,7 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>41</v>
@@ -3934,7 +4177,7 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>41</v>
@@ -3972,7 +4215,7 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>41</v>
@@ -4010,7 +4253,7 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>41</v>
@@ -4048,7 +4291,7 @@
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>41</v>
@@ -4086,7 +4329,7 @@
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>41</v>
@@ -4124,7 +4367,7 @@
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>41</v>
@@ -4162,7 +4405,7 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>41</v>
@@ -4200,7 +4443,7 @@
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>41</v>
@@ -4238,7 +4481,7 @@
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>41</v>
@@ -4276,7 +4519,7 @@
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>41</v>
@@ -4314,7 +4557,7 @@
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>41</v>
@@ -4352,7 +4595,7 @@
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>41</v>
@@ -4390,7 +4633,7 @@
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>41</v>
@@ -4428,7 +4671,7 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>41</v>
@@ -4466,7 +4709,7 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>41</v>
@@ -4504,7 +4747,7 @@
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>41</v>
@@ -4542,7 +4785,7 @@
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>41</v>
@@ -4580,7 +4823,7 @@
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>41</v>
@@ -4618,7 +4861,7 @@
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>41</v>
@@ -4656,7 +4899,7 @@
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>41</v>
@@ -4694,7 +4937,7 @@
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>41</v>
@@ -4732,7 +4975,7 @@
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>41</v>
@@ -4770,7 +5013,7 @@
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>41</v>
@@ -4808,7 +5051,7 @@
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>41</v>
@@ -4846,7 +5089,7 @@
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>41</v>

--- a/features/backlog/android/kill_switch.xlsx
+++ b/features/backlog/android/kill_switch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A5A0D0-4106-4752-BA16-AFCE2F9CAFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE861DD3-0AE8-410C-8FD8-1F62683B1E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="240">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -170,9 +170,6 @@
     <t>should go to the system kill switch option</t>
   </si>
   <si>
-    <t>Test case scenario :Kill Switch</t>
-  </si>
-  <si>
     <t>Evaluate the user interface for enabling/disabling the kill switch.</t>
   </si>
   <si>
@@ -308,21 +305,6 @@
     <t>Attempt to trigger the kill switch with incorrect or expired credentials.</t>
   </si>
   <si>
-    <t>Test the kill switch behavior when the app is already in the process of being terminated.</t>
-  </si>
-  <si>
-    <t>Verify the kill switch response to invalid or malformed commands.</t>
-  </si>
-  <si>
-    <t>Test the kill switch with incorrect configurations or settings.</t>
-  </si>
-  <si>
-    <t>Confirm that the kill switch cannot be triggered with unauthorized API calls.</t>
-  </si>
-  <si>
-    <t>Re-run all previous test cases after a new version of the app is released.</t>
-  </si>
-  <si>
     <t>Verify that the kill switch maintains backward compatibility with previous app versions.</t>
   </si>
   <si>
@@ -366,21 +348,6 @@
   </si>
   <si>
     <t>Test the kill switch performance with a large amount of app data.</t>
-  </si>
-  <si>
-    <t>Verify that the kill switch does not cause excessive resource consumption.</t>
-  </si>
-  <si>
-    <t>Test the kill switch during critical app processes (e.g., payment processing).</t>
-  </si>
-  <si>
-    <t>Verify that the kill switch does not interfere with ongoing user interactions.</t>
-  </si>
-  <si>
-    <t>Test the kill switch when the app is in a unique state (e.g., during a tutorial).</t>
-  </si>
-  <si>
-    <t>Verify that the kill switch works</t>
   </si>
   <si>
     <t>SYMKILLSWI-019</t>
@@ -624,6 +591,379 @@
   </si>
   <si>
     <t>should working enable/disable perfectly.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. connect server
+6. enable the kill switch
+</t>
+  </si>
+  <si>
+    <t>should work function properly as like stanndar kill switch</t>
+  </si>
+  <si>
+    <t>verify that the kill switch works</t>
+  </si>
+  <si>
+    <t>test the kill switch when the app is in a unique state (e.g., during a tutorial).</t>
+  </si>
+  <si>
+    <t>verify that the kill switch does not interfere with ongoing user interactions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. try to connect server in the moments of payment processing
+6. enable the kill switch
+</t>
+  </si>
+  <si>
+    <t>test the kill switch during critical app processes (e.g., payment processing).</t>
+  </si>
+  <si>
+    <t>verify that the kill switch does not cause excessive resource consumption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. try to connect server in low bandwidth
+6. measure the rource consumtion
+7. enable the kill switch
+8. measure the rource consumtion
+</t>
+  </si>
+  <si>
+    <t>should not consume more than low resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. try to connect server in low bandwidth
+7. enable the kill switch
+8. observe the performance of the app with system
+</t>
+  </si>
+  <si>
+    <t>Test case scenario : Kill Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+7. enable the kill switch
+8. observe the time while closing app from the forground
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+7. enable the kill switch
+8. observe the data passing while disable the kill switch
+</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch
+6. observe the action after enabled kill switch</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch
+6. observe the data transferring while enable kill switch</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch while having mltiple window is set</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch while having mltiple heavy application are running.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch while having heavy resoulation display</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch while having android version 14.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch while having device language is french.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch while having split screen</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch.
+6. browse and wait somwtimes
+7. disable the kill switch</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch.
+6. browse and wait somtimes
+7. disable the kill switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the data passing while disable the kill switch
+</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the data passing while disable the kill switch</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch while playing audio and video is running.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch while ongoing calls or messaging services running</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. try to make in-app payment 
+6. enable the kill switch
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. try to submit any form
+6. enable the kill switch quickly.
+</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch while multiple background task syncing.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the samsung s21 model.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the android os v13.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the screen size 14 inches.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the 64 bit CPU architechture</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the device having 4 GB RAM.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the device having  no internet.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour of the third party app.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour of the app remain in bacground.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour of the performance of the device.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. login with expired credntials
+3. tap on the menu list
+4. tap on the settings screen link
+5. tap on kill switch
+6. try to enable the kill switch</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour device while app is terminating.</t>
+  </si>
+  <si>
+    <t>test the kill switch behavior when the app is already in the process of being terminated.</t>
+  </si>
+  <si>
+    <t>verify the kill switch response to invalid or malformed commands.</t>
+  </si>
+  <si>
+    <t>test the kill switch with incorrect configurations or settings.</t>
+  </si>
+  <si>
+    <t>confirm that the kill switch cannot be triggered with unauthorized API calls.</t>
+  </si>
+  <si>
+    <t>re-run all previous test cases after a new version of the app is released.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour device while app is reviceving the command from malformed function.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour device while app having incorrect configuration or setting at the moments of installation.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour device while app is reviceving the request from unauthorized api.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour of the app after first use of current version from previous version.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour of the app after first use of significant code changes or updates.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour of the app in french language.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch
+6. observe the behaviour of the app with medium level of permission of the os users.</t>
   </si>
 </sst>
 </file>
@@ -1660,8 +2000,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1679,7 +2019,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1788,10 +2128,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>7</v>
@@ -1830,10 +2170,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -1868,10 +2208,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1909,7 +2249,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1933,7 +2273,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
     </row>
-    <row r="8" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +2284,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>47</v>
@@ -1971,7 +2311,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1982,7 +2322,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>47</v>
@@ -2009,7 +2349,7 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
@@ -2020,7 +2360,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>47</v>
@@ -2467,13 +2807,13 @@
     </row>
     <row r="22" spans="1:26" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>46</v>
@@ -2505,13 +2845,13 @@
     </row>
     <row r="23" spans="1:26" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>46</v>
@@ -2543,13 +2883,13 @@
     </row>
     <row r="24" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>46</v>
@@ -2581,13 +2921,13 @@
     </row>
     <row r="25" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>46</v>
@@ -2619,13 +2959,13 @@
     </row>
     <row r="26" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>46</v>
@@ -2657,13 +2997,13 @@
     </row>
     <row r="27" spans="1:26" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>46</v>
@@ -2695,13 +3035,13 @@
     </row>
     <row r="28" spans="1:26" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>46</v>
@@ -2733,13 +3073,13 @@
     </row>
     <row r="29" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>46</v>
@@ -2771,13 +3111,13 @@
     </row>
     <row r="30" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>46</v>
@@ -2809,13 +3149,13 @@
     </row>
     <row r="31" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>46</v>
@@ -2847,13 +3187,13 @@
     </row>
     <row r="32" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>46</v>
@@ -2885,13 +3225,13 @@
     </row>
     <row r="33" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>46</v>
@@ -2921,21 +3261,21 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="11"/>
@@ -2959,21 +3299,21 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
@@ -2997,18 +3337,18 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>47</v>
@@ -3035,18 +3375,18 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>47</v>
@@ -3073,18 +3413,18 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>47</v>
@@ -3111,18 +3451,18 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>47</v>
@@ -3149,18 +3489,18 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>47</v>
@@ -3187,18 +3527,18 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>47</v>
@@ -3225,18 +3565,18 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>47</v>
@@ -3263,18 +3603,18 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>47</v>
@@ -3301,18 +3641,18 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>47</v>
@@ -3339,18 +3679,18 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>47</v>
@@ -3377,18 +3717,18 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>47</v>
@@ -3415,18 +3755,18 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>47</v>
@@ -3453,18 +3793,18 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>47</v>
@@ -3491,18 +3831,18 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>47</v>
@@ -3529,18 +3869,18 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>46</v>
+        <v>218</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>47</v>
@@ -3567,18 +3907,18 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>47</v>
@@ -3605,18 +3945,18 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>47</v>
@@ -3643,18 +3983,18 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>47</v>
@@ -3681,18 +4021,18 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>46</v>
+        <v>222</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>47</v>
@@ -3719,15 +4059,15 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>46</v>
@@ -3757,15 +4097,15 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>46</v>
@@ -3795,15 +4135,15 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>46</v>
@@ -3833,15 +4173,15 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>46</v>
@@ -3871,15 +4211,15 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>46</v>
@@ -3909,15 +4249,15 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>46</v>
@@ -3947,15 +4287,15 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>46</v>
@@ -3985,15 +4325,15 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>46</v>
@@ -4023,18 +4363,18 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>47</v>
@@ -4061,18 +4401,18 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>47</v>
@@ -4099,18 +4439,18 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>47</v>
@@ -4137,18 +4477,18 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>47</v>
@@ -4175,18 +4515,18 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>94</v>
+        <v>228</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>47</v>
@@ -4213,18 +4553,18 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>47</v>
@@ -4251,18 +4591,18 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>47</v>
@@ -4289,18 +4629,18 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>47</v>
@@ -4327,15 +4667,15 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>46</v>
@@ -4365,18 +4705,18 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>47</v>
@@ -4403,18 +4743,18 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>46</v>
+        <v>237</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>47</v>
@@ -4441,18 +4781,18 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>47</v>
@@ -4479,18 +4819,18 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>47</v>
@@ -4517,18 +4857,18 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>47</v>
@@ -4555,18 +4895,18 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>47</v>
@@ -4593,18 +4933,18 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>47</v>
@@ -4631,15 +4971,15 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>46</v>
@@ -4669,15 +5009,15 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>46</v>
@@ -4707,15 +5047,15 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>46</v>
@@ -4745,15 +5085,15 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>46</v>
@@ -4783,15 +5123,15 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>46</v>
@@ -4821,18 +5161,18 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>47</v>
@@ -4859,18 +5199,18 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>47</v>
@@ -4897,18 +5237,18 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>47</v>
@@ -4935,21 +5275,21 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>114</v>
+        <v>193</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="11"/>
@@ -4973,18 +5313,18 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>47</v>
@@ -5011,21 +5351,21 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="11"/>
@@ -5049,21 +5389,21 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="11"/>
@@ -5087,21 +5427,21 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="13"/>

--- a/features/backlog/android/kill_switch.xlsx
+++ b/features/backlog/android/kill_switch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\backlog\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE861DD3-0AE8-410C-8FD8-1F62683B1E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F965CF-916B-4BCC-8CDE-FBA447BA04BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="256">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -701,13 +701,6 @@
 2. tap on the menu list
 3. tap on the settings screen link
 4. tap on kill switch
-5. enable kill switch while having mltiple window is set</t>
-  </si>
-  <si>
-    <t>1. open the app
-2. tap on the menu list
-3. tap on the settings screen link
-4. tap on kill switch
 5. enable kill switch while having mltiple heavy application are running.</t>
   </si>
   <si>
@@ -965,6 +958,147 @@
 5. enable the kill switch
 6. observe the behaviour of the app with medium level of permission of the os users.</t>
   </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the device having  2G/3G/4G net.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the device having  device on airplane mode.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the device having  device on intermittent mode.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the device having high number of concurrent users in server.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the app having under heavy load.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the device having limited resources left.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the device having other security features of the app.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch while having multiple window is set</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable the kill switch in device orientation(landscape / portait)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. check the accessibility for the device to run the kill switch.
+6. run kill switch.
+7. observe the effect of the kill switch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. check for any critical function from the app.
+6. run kill switch.
+7. observe the effect of the kill switch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. check for any critical function from the app.
+6. run kill switch.
+7. observe the effect of the kill switch.
+8. calculate the time
+</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch in the device having  poor internet.</t>
+  </si>
+  <si>
+    <t>1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. enable kill switch.
+6. wait some minutes.
+7. disable the kill switch.
+8. restart the app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. check for any critical function from the app.
+6. run kill switch.
+7. observe the effect of the kill switch on battery.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. try to connect server in low bandwidth
+7. enable the kill switch
+8. observe the performance of the app while having screen 17 inchies and screen resolution 10 Hz
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. open the app
+2. tap on the menu list
+3. tap on the settings screen link
+4. tap on kill switch
+5. try to connect server in low bandwidth
+7. enable the kill switch
+8. observe the performance of the app while no trouble feel with kill switch
+</t>
+  </si>
 </sst>
 </file>
 
@@ -1004,7 +1138,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1015,6 +1149,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1082,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1125,10 +1265,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2000,8 +2154,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <pane ySplit="3" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2018,15 +2172,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2048,13 +2202,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2881,7 +3035,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>110</v>
       </c>
@@ -2892,7 +3046,7 @@
         <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>47</v>
@@ -2919,7 +3073,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>111</v>
       </c>
@@ -2930,7 +3084,7 @@
         <v>51</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>47</v>
@@ -2957,7 +3111,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>112</v>
       </c>
@@ -2968,7 +3122,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>47</v>
@@ -2995,7 +3149,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>113</v>
       </c>
@@ -3006,7 +3160,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>47</v>
@@ -3033,7 +3187,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>114</v>
       </c>
@@ -3044,7 +3198,7 @@
         <v>54</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>47</v>
@@ -3071,7 +3225,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>115</v>
       </c>
@@ -3082,7 +3236,7 @@
         <v>55</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>47</v>
@@ -3109,7 +3263,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>116</v>
       </c>
@@ -3120,7 +3274,7 @@
         <v>56</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>47</v>
@@ -3147,7 +3301,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -3158,7 +3312,7 @@
         <v>57</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>47</v>
@@ -3185,7 +3339,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>118</v>
       </c>
@@ -3196,7 +3350,7 @@
         <v>58</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>47</v>
@@ -3223,7 +3377,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>119</v>
       </c>
@@ -3272,7 +3426,7 @@
         <v>60</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>187</v>
@@ -3310,7 +3464,7 @@
         <v>61</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>187</v>
@@ -3348,7 +3502,7 @@
         <v>62</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>47</v>
@@ -3386,7 +3540,7 @@
         <v>63</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>47</v>
@@ -3424,7 +3578,7 @@
         <v>64</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>47</v>
@@ -3462,7 +3616,7 @@
         <v>65</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>47</v>
@@ -3500,7 +3654,7 @@
         <v>66</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>47</v>
@@ -3538,7 +3692,7 @@
         <v>67</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>47</v>
@@ -3576,7 +3730,7 @@
         <v>68</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>47</v>
@@ -3614,7 +3768,7 @@
         <v>69</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>47</v>
@@ -3652,7 +3806,7 @@
         <v>70</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>47</v>
@@ -3690,7 +3844,7 @@
         <v>71</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>47</v>
@@ -3728,7 +3882,7 @@
         <v>72</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>47</v>
@@ -3766,7 +3920,7 @@
         <v>73</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>47</v>
@@ -3804,7 +3958,7 @@
         <v>74</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>47</v>
@@ -3842,7 +3996,7 @@
         <v>75</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>47</v>
@@ -3880,7 +4034,7 @@
         <v>76</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>47</v>
@@ -3918,7 +4072,7 @@
         <v>77</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>47</v>
@@ -3956,7 +4110,7 @@
         <v>78</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>47</v>
@@ -3994,7 +4148,7 @@
         <v>79</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>47</v>
@@ -4032,7 +4186,7 @@
         <v>80</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>47</v>
@@ -4070,7 +4224,7 @@
         <v>81</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>47</v>
@@ -4097,7 +4251,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>142</v>
       </c>
@@ -4108,7 +4262,7 @@
         <v>82</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>47</v>
@@ -4135,7 +4289,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>143</v>
       </c>
@@ -4146,7 +4300,7 @@
         <v>83</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>47</v>
@@ -4173,7 +4327,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>144</v>
       </c>
@@ -4184,7 +4338,7 @@
         <v>84</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>46</v>
+        <v>242</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>47</v>
@@ -4211,7 +4365,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>145</v>
       </c>
@@ -4222,7 +4376,7 @@
         <v>85</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>47</v>
@@ -4249,7 +4403,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>146</v>
       </c>
@@ -4260,7 +4414,7 @@
         <v>86</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>47</v>
@@ -4287,7 +4441,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>147</v>
       </c>
@@ -4298,7 +4452,7 @@
         <v>87</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>47</v>
@@ -4325,7 +4479,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>148</v>
       </c>
@@ -4336,7 +4490,7 @@
         <v>88</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>46</v>
+        <v>245</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>47</v>
@@ -4363,7 +4517,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>149</v>
       </c>
@@ -4374,7 +4528,7 @@
         <v>89</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>47</v>
@@ -4412,7 +4566,7 @@
         <v>90</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>47</v>
@@ -4450,7 +4604,7 @@
         <v>91</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>47</v>
@@ -4488,7 +4642,7 @@
         <v>92</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>47</v>
@@ -4523,10 +4677,10 @@
         <v>41</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>47</v>
@@ -4561,10 +4715,10 @@
         <v>41</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>47</v>
@@ -4599,10 +4753,10 @@
         <v>41</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>47</v>
@@ -4637,10 +4791,10 @@
         <v>41</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>47</v>
@@ -4675,7 +4829,7 @@
         <v>41</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>46</v>
@@ -4716,7 +4870,7 @@
         <v>93</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>47</v>
@@ -4754,7 +4908,7 @@
         <v>94</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>47</v>
@@ -4781,24 +4935,24 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:26" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E74" s="6" t="s">
+      <c r="D74" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="11"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="19"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -4819,7 +4973,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>161</v>
       </c>
@@ -4830,7 +4984,7 @@
         <v>96</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>47</v>
@@ -4857,7 +5011,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>162</v>
       </c>
@@ -4868,7 +5022,7 @@
         <v>97</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>47</v>
@@ -4895,7 +5049,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>163</v>
       </c>
@@ -4906,7 +5060,7 @@
         <v>98</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>47</v>
@@ -4933,7 +5087,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>164</v>
       </c>
@@ -4944,7 +5098,7 @@
         <v>99</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>47</v>
@@ -4971,7 +5125,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>165</v>
       </c>
@@ -4982,7 +5136,7 @@
         <v>100</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>47</v>
@@ -5009,7 +5163,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>166</v>
       </c>
@@ -5020,7 +5174,7 @@
         <v>101</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>47</v>
@@ -5047,7 +5201,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>167</v>
       </c>
@@ -5058,7 +5212,7 @@
         <v>102</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>47</v>
@@ -5085,7 +5239,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>168</v>
       </c>
@@ -5096,7 +5250,7 @@
         <v>103</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>47</v>
